--- a/back/scriptImport/data.xlsx
+++ b/back/scriptImport/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\EstyaTicketing\back\scriptImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737978F4-54AE-4F88-9300-F307D4E5D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5348C3D-02AA-40DD-9033-7D06C6912423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2472,15 +2472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="6" max="6" width="102.25" customWidth="1"/>
     <col min="10" max="10" width="34.25" customWidth="1"/>
     <col min="11" max="11" width="38.5" customWidth="1"/>
   </cols>
@@ -4860,6 +4860,44 @@
         <v>429</v>
       </c>
     </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>684</v>
+      </c>
+      <c r="B59" t="s">
+        <v>685</v>
+      </c>
+      <c r="C59" t="s">
+        <v>686</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>687</v>
+      </c>
+      <c r="F59" t="s">
+        <v>688</v>
+      </c>
+      <c r="G59" t="s">
+        <v>689</v>
+      </c>
+      <c r="I59" t="s">
+        <v>690</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="s">
+        <v>473</v>
+      </c>
+    </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>430</v>
@@ -6176,44 +6214,6 @@
       </c>
       <c r="M94" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>684</v>
-      </c>
-      <c r="B95" t="s">
-        <v>685</v>
-      </c>
-      <c r="C95" t="s">
-        <v>686</v>
-      </c>
-      <c r="D95" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" t="s">
-        <v>687</v>
-      </c>
-      <c r="F95" t="s">
-        <v>688</v>
-      </c>
-      <c r="G95" t="s">
-        <v>689</v>
-      </c>
-      <c r="I95" t="s">
-        <v>690</v>
-      </c>
-      <c r="J95" t="s">
-        <v>496</v>
-      </c>
-      <c r="K95" t="s">
-        <v>497</v>
-      </c>
-      <c r="L95" t="s">
-        <v>498</v>
-      </c>
-      <c r="M95" t="s">
-        <v>473</v>
       </c>
     </row>
   </sheetData>
